--- a/backup_1_9/plotQtdFeatures.xlsx
+++ b/backup_1_9/plotQtdFeatures.xlsx
@@ -10,7 +10,7 @@
     <sheet name="plotQtdFeatures" sheetId="1" r:id="rId1"/>
     <sheet name="plotQtdFeatures NO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -587,106 +587,106 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,106 +710,106 @@
                   <c:v>0.88606060606060599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89297379344634797</c:v>
+                  <c:v>0.41296296296296298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83927048336535903</c:v>
+                  <c:v>0.73696969696969705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78657451580920901</c:v>
+                  <c:v>0.89723946784922404</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81085273614977205</c:v>
+                  <c:v>0.88545454545454505</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94481493250466897</c:v>
+                  <c:v>0.88911388533573699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87339661164739002</c:v>
+                  <c:v>0.83896786304846604</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85265477908334997</c:v>
+                  <c:v>0.84154922238255503</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86605405889622</c:v>
+                  <c:v>0.77226545974790695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81173122449471402</c:v>
+                  <c:v>0.94495166448108603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87378944226641897</c:v>
+                  <c:v>0.93946802412895503</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.87147914371476098</c:v>
+                  <c:v>0.81986381673881603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78992532189215303</c:v>
+                  <c:v>0.86411863295551905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89645325171873003</c:v>
+                  <c:v>0.78289972513204098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.90021651358354704</c:v>
+                  <c:v>0.88187882000377105</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93244424166766904</c:v>
+                  <c:v>0.83060936215316294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90166067805486305</c:v>
+                  <c:v>0.85008149925433596</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94173602630040598</c:v>
+                  <c:v>0.89753883968461301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.87848568790396997</c:v>
+                  <c:v>0.86785953969777496</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96666666666666601</c:v>
+                  <c:v>0.93144408564372505</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93696969696969601</c:v>
+                  <c:v>0.92673665643940395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.86892618231319096</c:v>
+                  <c:v>0.91051945975136594</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.929519151707208</c:v>
+                  <c:v>0.87665015809060098</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.89227440794652502</c:v>
+                  <c:v>0.96484848484848396</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.98842975206611505</c:v>
+                  <c:v>0.80930415263748601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91915150428830406</c:v>
+                  <c:v>0.92639922968200705</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.86308656559114205</c:v>
+                  <c:v>0.93313666972757803</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93556555101863403</c:v>
+                  <c:v>0.89162711941057604</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97232940622354602</c:v>
+                  <c:v>0.98925619834710699</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97448096885813096</c:v>
+                  <c:v>0.92093272164115103</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96</c:v>
+                  <c:v>0.86094858452459</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.939393939393939</c:v>
+                  <c:v>0.93248850967248498</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93212121212121202</c:v>
+                  <c:v>0.966862470536068</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99151515151515102</c:v>
+                  <c:v>0.97390426758938797</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.94468521487881996</c:v>
+                  <c:v>0.94909090909090899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,106 +848,106 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,106 +971,106 @@
                   <c:v>0.81499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78877777777777702</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77311485890652498</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.741206396447467</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77699615199615202</c:v>
+                  <c:v>0.89999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.882710024669208</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79742737949880804</c:v>
+                  <c:v>0.88379629629629597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83266005291005196</c:v>
+                  <c:v>0.82405092592592499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79743771043770995</c:v>
+                  <c:v>0.801115921115921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81164772727272705</c:v>
+                  <c:v>0.86828885400313904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78087536900103804</c:v>
+                  <c:v>0.94375180375180301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80133405483405395</c:v>
+                  <c:v>0.82513888888888798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.71482308399272598</c:v>
+                  <c:v>0.86944444444444402</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.84939490425799902</c:v>
+                  <c:v>0.85102272727272699</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79961508280974403</c:v>
+                  <c:v>0.88240329363097203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.86935576418776095</c:v>
+                  <c:v>0.86041666666666605</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.81789500661375603</c:v>
+                  <c:v>0.87727648894315502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89786216329966295</c:v>
+                  <c:v>0.90119047619047599</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.81284656084656004</c:v>
+                  <c:v>0.90765758547008502</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.81599999999999995</c:v>
+                  <c:v>0.92884232264334299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88233333333333297</c:v>
+                  <c:v>0.93097222222222198</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.83630761616815996</c:v>
+                  <c:v>0.93893698893698896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.88678388307776401</c:v>
+                  <c:v>0.86982456140350795</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.86836441798941799</c:v>
+                  <c:v>0.87999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.949242424242424</c:v>
+                  <c:v>0.88370370370370299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.81392138755218502</c:v>
+                  <c:v>0.95167346938775499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.78438674279235499</c:v>
+                  <c:v>0.91359477124182997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.856296296296296</c:v>
+                  <c:v>0.91083333333333305</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.877634742873873</c:v>
+                  <c:v>0.92424242424242398</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.86362952588442699</c:v>
+                  <c:v>0.92861234004091098</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.90033333333333299</c:v>
+                  <c:v>0.86879251700680205</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.69866666666666599</c:v>
+                  <c:v>0.92962962962962903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.85266666666666602</c:v>
+                  <c:v>0.97563607085346205</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.98599999999999999</c:v>
+                  <c:v>0.99346405228758095</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93866666666666598</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,106 +1109,106 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,137 +1232,137 @@
                   <c:v>0.94283822266591999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.893919214643906</c:v>
+                  <c:v>0.84026985769777096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90622608571099805</c:v>
+                  <c:v>0.85798979030515898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91878249890099295</c:v>
+                  <c:v>0.91973766432044701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94430882066722899</c:v>
+                  <c:v>0.94069455201129804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97687912609553895</c:v>
+                  <c:v>0.89523277470374196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91008732578321205</c:v>
+                  <c:v>0.90203770852854104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95041520934268497</c:v>
+                  <c:v>0.94771102203131097</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91757110037074097</c:v>
+                  <c:v>0.93434080013098098</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91630709918994302</c:v>
+                  <c:v>0.97136253557367502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90312265613067599</c:v>
+                  <c:v>0.95199453112513999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90879856405301496</c:v>
+                  <c:v>0.91398358438081795</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88142093679424105</c:v>
+                  <c:v>0.91794120638430599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94711172187004</c:v>
+                  <c:v>0.90089728561184401</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93371650558936503</c:v>
+                  <c:v>0.91086055050186898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95199942655430903</c:v>
+                  <c:v>0.89769492961168096</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92157173310215601</c:v>
+                  <c:v>0.89677478866540905</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97359618509229995</c:v>
+                  <c:v>0.94052846712120197</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93962839643940299</c:v>
+                  <c:v>0.92884546592766504</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98043679700307895</c:v>
+                  <c:v>0.94731276043209101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98101752490482397</c:v>
+                  <c:v>0.94760897417757495</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98175657228924595</c:v>
+                  <c:v>0.93803510133286205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.96020842337072099</c:v>
+                  <c:v>0.93469622444568501</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95949460189509606</c:v>
+                  <c:v>0.97962045218639704</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.98628467554900801</c:v>
+                  <c:v>0.93380632983380196</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91326162826197299</c:v>
+                  <c:v>0.95691739697479705</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.91446776586128797</c:v>
+                  <c:v>0.96405381294208903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94278235250419395</c:v>
+                  <c:v>0.95369864696645501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.94138552543742404</c:v>
+                  <c:v>0.98634132148541898</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95071068150022697</c:v>
+                  <c:v>0.91371790379268802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.985117836338403</c:v>
+                  <c:v>0.89990646427694698</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.82856337291360804</c:v>
+                  <c:v>0.93593412230404804</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.96401789293074502</c:v>
+                  <c:v>0.95340117499646404</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99771947985119203</c:v>
+                  <c:v>0.95134008585220597</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99624100585116104</c:v>
+                  <c:v>0.97955549955590704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77556352"/>
-        <c:axId val="77554816"/>
+        <c:axId val="48325760"/>
+        <c:axId val="48327296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77556352"/>
+        <c:axId val="48325760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77554816"/>
+        <c:crossAx val="48327296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77554816"/>
+        <c:axId val="48327296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.30000000000000004"/>
+          <c:min val="0.3000000000000001"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77556352"/>
+        <c:crossAx val="48325760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1375,7 +1375,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1425,106 +1425,106 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,128 +1548,128 @@
                   <c:v>1.29438831900799E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4141618948985401E-2</c:v>
+                  <c:v>6.9432774248873397E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.54085485144049E-2</c:v>
+                  <c:v>2.78680305311792E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9115225187918701E-2</c:v>
+                  <c:v>2.8717844695673601E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7085348582570398E-2</c:v>
+                  <c:v>1.3072961884183601E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.07071791182104E-2</c:v>
+                  <c:v>1.3529404359788199E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7003765276305802E-2</c:v>
+                  <c:v>2.6829524074911501E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7615231087682998E-2</c:v>
+                  <c:v>1.74113385711929E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6796262614992698E-2</c:v>
+                  <c:v>2.2215658728659202E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4687260658305E-2</c:v>
+                  <c:v>1.05498635716374E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6206641732967399E-2</c:v>
+                  <c:v>1.1630340114680801E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.52575565224203E-2</c:v>
+                  <c:v>2.17927756073171E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.944189966818E-2</c:v>
+                  <c:v>1.7808170387735502E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4061633398237201E-2</c:v>
+                  <c:v>1.4703578856658199E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8840511472619E-2</c:v>
+                  <c:v>1.7888280453016998E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0368752356153499E-2</c:v>
+                  <c:v>1.67336418292864E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1602520094497601E-2</c:v>
+                  <c:v>1.9287485885648999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.07491067090389E-2</c:v>
+                  <c:v>1.6247377899878498E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.76265363958228E-2</c:v>
+                  <c:v>2.0821033320644802E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.15622428408496E-2</c:v>
+                  <c:v>1.0584293012522301E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3822243275465799E-2</c:v>
+                  <c:v>1.15848792661332E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7444632341839E-2</c:v>
+                  <c:v>1.40817777836973E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.6948393860775903E-3</c:v>
+                  <c:v>1.77739496132545E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7219416436093201E-2</c:v>
+                  <c:v>1.3296066389748199E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0072180502139701E-3</c:v>
+                  <c:v>2.44350584180399E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.18815220401189E-2</c:v>
+                  <c:v>1.5157807309706501E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9672497151961902E-2</c:v>
+                  <c:v>9.6119049854083601E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6342817140316102E-2</c:v>
+                  <c:v>2.2498746705071598E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.8688199605832301E-3</c:v>
+                  <c:v>7.1915294202123704E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.60579708115325E-3</c:v>
+                  <c:v>1.2624975274204401E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.26663504901768E-2</c:v>
+                  <c:v>4.3280848000295899E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3808465841837601E-2</c:v>
+                  <c:v>1.6603892989884801E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.4171761443645396E-3</c:v>
+                  <c:v>8.4466198951049995E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.4940612766577901E-3</c:v>
+                  <c:v>6.5932661005393897E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.9743176899913303E-3</c:v>
+                  <c:v>1.26835327477658E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="102537472"/>
-        <c:axId val="102535936"/>
+        <c:axId val="48335488"/>
+        <c:axId val="48341376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102537472"/>
+        <c:axId val="48335488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102535936"/>
+        <c:crossAx val="48341376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102535936"/>
+        <c:axId val="48341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1677,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102537472"/>
+        <c:crossAx val="48335488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1690,7 +1690,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1720,10 +1720,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'plotQtdFeatures NO'!$A$1:$A$36</c:f>
+              <c:f>'plotQtdFeatures NO'!$A$1:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1809,145 +1809,139 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'plotQtdFeatures NO'!$D$1:$D$36</c:f>
+              <c:f>'plotQtdFeatures NO'!$D$1:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.73212121212121195</c:v>
+                  <c:v>0.73696969696969705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.912483370288248</c:v>
+                  <c:v>0.89723946784922404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88606060606060599</c:v>
+                  <c:v>0.88545454545454505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89297379344634797</c:v>
+                  <c:v>0.88911388533573699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83927048336535903</c:v>
+                  <c:v>0.83896786304846604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78657451580920901</c:v>
+                  <c:v>0.84154922238255503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81085273614977205</c:v>
+                  <c:v>0.77226545974790695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94481493250466897</c:v>
+                  <c:v>0.94495166448108603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87339661164739002</c:v>
+                  <c:v>0.93946802412895503</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85265477908334997</c:v>
+                  <c:v>0.81986381673881603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86605405889622</c:v>
+                  <c:v>0.86411863295551905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81173122449471402</c:v>
+                  <c:v>0.78289972513204098</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87378944226641897</c:v>
+                  <c:v>0.88187882000377105</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87147914371476098</c:v>
+                  <c:v>0.83060936215316294</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.78992532189215303</c:v>
+                  <c:v>0.85008149925433596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.89645325171873003</c:v>
+                  <c:v>0.89753883968461301</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90021651358354704</c:v>
+                  <c:v>0.86785953969777496</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93244424166766904</c:v>
+                  <c:v>0.93144408564372505</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90166067805486305</c:v>
+                  <c:v>0.92673665643940395</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94173602630040598</c:v>
+                  <c:v>0.91051945975136594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.87848568790396997</c:v>
+                  <c:v>0.87665015809060098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.96666666666666601</c:v>
+                  <c:v>0.96484848484848396</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93696969696969601</c:v>
+                  <c:v>0.80930415263748601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.86892618231319096</c:v>
+                  <c:v>0.92639922968200705</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.929519151707208</c:v>
+                  <c:v>0.93313666972757803</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.89227440794652502</c:v>
+                  <c:v>0.89162711941057604</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.98842975206611505</c:v>
+                  <c:v>0.98925619834710699</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91915150428830406</c:v>
+                  <c:v>0.92093272164115103</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.93556555101863403</c:v>
+                  <c:v>0.86094858452459</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97232940622354602</c:v>
+                  <c:v>0.93248850967248498</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97448096885813096</c:v>
+                  <c:v>0.966862470536068</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.96</c:v>
+                  <c:v>0.97390426758938797</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.939393939393939</c:v>
+                  <c:v>0.94909090909090899</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93212121212121202</c:v>
+                  <c:v>0.93818181818181801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99151515151515102</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.94468521487881996</c:v>
+                  <c:v>0.92727272727272703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,10 +1963,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'plotQtdFeatures NO'!$A$1:$A$36</c:f>
+              <c:f>'plotQtdFeatures NO'!$A$1:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2058,145 +2052,139 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'plotQtdFeatures NO'!$F$1:$F$36</c:f>
+              <c:f>'plotQtdFeatures NO'!$F$1:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.65449999999999997</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8085</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81499999999999995</c:v>
+                  <c:v>0.89999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78877777777777702</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77311485890652498</c:v>
+                  <c:v>0.88379629629629597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.741206396447467</c:v>
+                  <c:v>0.82405092592592499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77699615199615202</c:v>
+                  <c:v>0.801115921115921</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.882710024669208</c:v>
+                  <c:v>0.86828885400313904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79742737949880804</c:v>
+                  <c:v>0.94375180375180301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83266005291005196</c:v>
+                  <c:v>0.82513888888888798</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79743771043770995</c:v>
+                  <c:v>0.86944444444444402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81164772727272705</c:v>
+                  <c:v>0.85102272727272699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78087536900103804</c:v>
+                  <c:v>0.88240329363097203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.80133405483405395</c:v>
+                  <c:v>0.86041666666666605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.71482308399272598</c:v>
+                  <c:v>0.87727648894315502</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.84939490425799902</c:v>
+                  <c:v>0.90119047619047599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79961508280974403</c:v>
+                  <c:v>0.90765758547008502</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86935576418776095</c:v>
+                  <c:v>0.92884232264334299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81789500661375603</c:v>
+                  <c:v>0.93097222222222198</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89786216329966295</c:v>
+                  <c:v>0.93893698893698896</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.81284656084656004</c:v>
+                  <c:v>0.86982456140350795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.81599999999999995</c:v>
+                  <c:v>0.87999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88233333333333297</c:v>
+                  <c:v>0.88370370370370299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.83630761616815996</c:v>
+                  <c:v>0.95167346938775499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88678388307776401</c:v>
+                  <c:v>0.91359477124182997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86836441798941799</c:v>
+                  <c:v>0.91083333333333305</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.949242424242424</c:v>
+                  <c:v>0.92424242424242398</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.81392138755218502</c:v>
+                  <c:v>0.92861234004091098</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.856296296296296</c:v>
+                  <c:v>0.86879251700680205</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.877634742873873</c:v>
+                  <c:v>0.92962962962962903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.86362952588442699</c:v>
+                  <c:v>0.97563607085346205</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.90033333333333299</c:v>
+                  <c:v>0.99346405228758095</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69866666666666599</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.85266666666666602</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.98599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.93866666666666598</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,10 +2206,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'plotQtdFeatures NO'!$A$1:$A$36</c:f>
+              <c:f>'plotQtdFeatures NO'!$A$1:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2307,176 +2295,170 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'plotQtdFeatures NO'!$H$1:$H$36</c:f>
+              <c:f>'plotQtdFeatures NO'!$H$1:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.85378905215037904</c:v>
+                  <c:v>0.85798979030515898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92651566842948496</c:v>
+                  <c:v>0.91973766432044701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94283822266591999</c:v>
+                  <c:v>0.94069455201129804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.893919214643906</c:v>
+                  <c:v>0.89523277470374196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90622608571099805</c:v>
+                  <c:v>0.90203770852854104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91878249890099295</c:v>
+                  <c:v>0.94771102203131097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94430882066722899</c:v>
+                  <c:v>0.93434080013098098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97687912609553895</c:v>
+                  <c:v>0.97136253557367502</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91008732578321205</c:v>
+                  <c:v>0.95199453112513999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95041520934268497</c:v>
+                  <c:v>0.91398358438081795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91757110037074097</c:v>
+                  <c:v>0.91794120638430599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91630709918994302</c:v>
+                  <c:v>0.90089728561184401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90312265613067599</c:v>
+                  <c:v>0.91086055050186898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90879856405301496</c:v>
+                  <c:v>0.89769492961168096</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88142093679424105</c:v>
+                  <c:v>0.89677478866540905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94711172187004</c:v>
+                  <c:v>0.94052846712120197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93371650558936503</c:v>
+                  <c:v>0.92884546592766504</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95199942655430903</c:v>
+                  <c:v>0.94731276043209101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92157173310215601</c:v>
+                  <c:v>0.94760897417757495</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97359618509229995</c:v>
+                  <c:v>0.93803510133286205</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.93962839643940299</c:v>
+                  <c:v>0.93469622444568501</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98043679700307895</c:v>
+                  <c:v>0.97962045218639704</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98101752490482397</c:v>
+                  <c:v>0.93380632983380196</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98175657228924595</c:v>
+                  <c:v>0.95691739697479705</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.96020842337072099</c:v>
+                  <c:v>0.96405381294208903</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95949460189509606</c:v>
+                  <c:v>0.95369864696645501</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.98628467554900801</c:v>
+                  <c:v>0.98634132148541898</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91326162826197299</c:v>
+                  <c:v>0.91371790379268802</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94278235250419395</c:v>
+                  <c:v>0.89990646427694698</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94138552543742404</c:v>
+                  <c:v>0.93593412230404804</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.95071068150022697</c:v>
+                  <c:v>0.95340117499646404</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.985117836338403</c:v>
+                  <c:v>0.95134008585220597</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82856337291360804</c:v>
+                  <c:v>0.97955549955590704</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96401789293074502</c:v>
+                  <c:v>0.82693675450454496</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99771947985119203</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.99624100585116104</c:v>
+                  <c:v>0.958081191352535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76626176"/>
-        <c:axId val="76640256"/>
+        <c:axId val="48439680"/>
+        <c:axId val="48441216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76626176"/>
+        <c:axId val="48439680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76640256"/>
+        <c:crossAx val="48441216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76640256"/>
+        <c:axId val="48441216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.30000000000000016"/>
+          <c:min val="0.30000000000000021"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76626176"/>
+        <c:crossAx val="48439680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2489,7 +2471,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2522,10 +2504,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'plotQtdFeatures NO'!$A$1:$A$36</c:f>
+              <c:f>'plotQtdFeatures NO'!$A$1:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2611,167 +2593,161 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'plotQtdFeatures NO'!$B$1:$B$36</c:f>
+              <c:f>'plotQtdFeatures NO'!$B$1:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>1.7892597685408702E-2</c:v>
+                  <c:v>2.78680305311792E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4230431198966201E-2</c:v>
+                  <c:v>2.8717844695673601E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.29438831900799E-2</c:v>
+                  <c:v>1.3072961884183601E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4141618948985401E-2</c:v>
+                  <c:v>1.3529404359788199E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.54085485144049E-2</c:v>
+                  <c:v>2.6829524074911501E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9115225187918701E-2</c:v>
+                  <c:v>1.74113385711929E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7085348582570398E-2</c:v>
+                  <c:v>2.2215658728659202E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.07071791182104E-2</c:v>
+                  <c:v>1.05498635716374E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7003765276305802E-2</c:v>
+                  <c:v>1.1630340114680801E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7615231087682998E-2</c:v>
+                  <c:v>2.17927756073171E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6796262614992698E-2</c:v>
+                  <c:v>1.7808170387735502E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4687260658305E-2</c:v>
+                  <c:v>1.4703578856658199E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6206641732967399E-2</c:v>
+                  <c:v>1.7888280453016998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.52575565224203E-2</c:v>
+                  <c:v>1.67336418292864E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.944189966818E-2</c:v>
+                  <c:v>1.9287485885648999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4061633398237201E-2</c:v>
+                  <c:v>1.6247377899878498E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8840511472619E-2</c:v>
+                  <c:v>2.0821033320644802E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0368752356153499E-2</c:v>
+                  <c:v>1.0584293012522301E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1602520094497601E-2</c:v>
+                  <c:v>1.15848792661332E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.07491067090389E-2</c:v>
+                  <c:v>1.40817777836973E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.76265363958228E-2</c:v>
+                  <c:v>1.77739496132545E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.15622428408496E-2</c:v>
+                  <c:v>1.3296066389748199E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3822243275465799E-2</c:v>
+                  <c:v>2.44350584180399E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7444632341839E-2</c:v>
+                  <c:v>1.5157807309706501E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.6948393860775903E-3</c:v>
+                  <c:v>9.6119049854083601E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7219416436093201E-2</c:v>
+                  <c:v>2.2498746705071598E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0072180502139701E-3</c:v>
+                  <c:v>7.1915294202123704E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.18815220401189E-2</c:v>
+                  <c:v>1.2624975274204401E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6342817140316102E-2</c:v>
+                  <c:v>4.3280848000295899E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8688199605832301E-3</c:v>
+                  <c:v>1.6603892989884801E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.60579708115325E-3</c:v>
+                  <c:v>8.4466198951049995E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.26663504901768E-2</c:v>
+                  <c:v>6.5932661005393897E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3808465841837601E-2</c:v>
+                  <c:v>1.26835327477658E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4171761443645396E-3</c:v>
+                  <c:v>2.35633554765423E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4940612766577901E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.9743176899913303E-3</c:v>
+                  <c:v>7.2303801912552701E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76660736"/>
-        <c:axId val="76662272"/>
+        <c:axId val="48457600"/>
+        <c:axId val="48459136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76660736"/>
+        <c:axId val="48457600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76662272"/>
+        <c:crossAx val="48459136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76662272"/>
+        <c:axId val="48459136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2755,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76660736"/>
+        <c:crossAx val="48457600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2792,7 +2768,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2867,16 +2843,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2897,16 +2873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3216,7 +3192,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A5" sqref="A5:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3339,956 +3315,956 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1.4141618948985401E-2</v>
+        <v>6.9432774248873397E-2</v>
       </c>
       <c r="C5">
-        <v>3.5487592299412798E-3</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.89297379344634797</v>
+        <v>0.41296296296296298</v>
       </c>
       <c r="E5">
-        <v>8.2715610321925204E-2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.78877777777777702</v>
+        <v>0.6</v>
       </c>
       <c r="G5">
-        <v>0.19801973339749401</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.893919214643906</v>
+        <v>0.84026985769777096</v>
       </c>
       <c r="I5">
-        <v>9.4578200897217607E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>2.54085485144049E-2</v>
+        <v>2.78680305311792E-2</v>
       </c>
       <c r="C6">
-        <v>1.7189763720732099E-2</v>
+        <v>1.0372302911615901E-2</v>
       </c>
       <c r="D6">
-        <v>0.83927048336535903</v>
+        <v>0.73696969696969705</v>
       </c>
       <c r="E6">
-        <v>0.17145672040944501</v>
+        <v>3.7712361663282498E-2</v>
       </c>
       <c r="F6">
-        <v>0.77311485890652498</v>
+        <v>0.71</v>
       </c>
       <c r="G6">
-        <v>0.13796464338273101</v>
+        <v>0.12727922061357799</v>
       </c>
       <c r="H6">
-        <v>0.90622608571099805</v>
+        <v>0.85798979030515898</v>
       </c>
       <c r="I6">
-        <v>9.3115731556360701E-2</v>
+        <v>0.10084679445330701</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>1.9115225187918701E-2</v>
+        <v>2.8717844695673601E-2</v>
       </c>
       <c r="C7">
-        <v>1.07357474700416E-2</v>
+        <v>2.6591190574428601E-3</v>
       </c>
       <c r="D7">
-        <v>0.78657451580920901</v>
+        <v>0.89723946784922404</v>
       </c>
       <c r="E7">
-        <v>0.17637521221275601</v>
+        <v>1.1617874165393199E-2</v>
       </c>
       <c r="F7">
-        <v>0.741206396447467</v>
+        <v>0.82</v>
       </c>
       <c r="G7">
-        <v>0.16586209584345901</v>
+        <v>2.8284271247461999E-2</v>
       </c>
       <c r="H7">
-        <v>0.91878249890099295</v>
+        <v>0.91973766432044701</v>
       </c>
       <c r="I7">
-        <v>8.6569251170824396E-2</v>
+        <v>0.10234115926996699</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>1.7085348582570398E-2</v>
+        <v>1.3072961884183601E-2</v>
       </c>
       <c r="C8">
-        <v>7.4322370037566299E-3</v>
+        <v>3.6751889749462299E-3</v>
       </c>
       <c r="D8">
-        <v>0.81085273614977205</v>
+        <v>0.88545454545454505</v>
       </c>
       <c r="E8">
-        <v>0.14699408613409701</v>
+        <v>7.4567624197854093E-2</v>
       </c>
       <c r="F8">
-        <v>0.77699615199615202</v>
+        <v>0.89999999999999902</v>
       </c>
       <c r="G8">
-        <v>0.13056477644021999</v>
+        <v>0.141421356237309</v>
       </c>
       <c r="H8">
-        <v>0.94430882066722899</v>
+        <v>0.94069455201129804</v>
       </c>
       <c r="I8">
-        <v>6.0108057567342901E-2</v>
+        <v>2.8097817705300201E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>1.07071791182104E-2</v>
+        <v>1.3529404359788199E-2</v>
       </c>
       <c r="C9">
-        <v>7.60613842836496E-3</v>
+        <v>3.1566644021290601E-3</v>
       </c>
       <c r="D9">
-        <v>0.94481493250466897</v>
+        <v>0.88911388533573699</v>
       </c>
       <c r="E9">
-        <v>2.9765000159264299E-2</v>
+        <v>7.9910132275372595E-2</v>
       </c>
       <c r="F9">
-        <v>0.882710024669208</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="G9">
-        <v>8.3116927218549699E-2</v>
+        <v>0.115470053837925</v>
       </c>
       <c r="H9">
-        <v>0.97687912609553895</v>
+        <v>0.89523277470374196</v>
       </c>
       <c r="I9">
-        <v>2.08406619627464E-2</v>
+        <v>8.9334922549948195E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>1.7003765276305802E-2</v>
+        <v>2.6829524074911501E-2</v>
       </c>
       <c r="C10">
-        <v>1.49314910871666E-2</v>
+        <v>1.79148856422306E-2</v>
       </c>
       <c r="D10">
-        <v>0.87339661164739002</v>
+        <v>0.83896786304846604</v>
       </c>
       <c r="E10">
-        <v>0.18371014214706299</v>
+        <v>0.16983223876181699</v>
       </c>
       <c r="F10">
-        <v>0.79742737949880804</v>
+        <v>0.88379629629629597</v>
       </c>
       <c r="G10">
-        <v>0.19657758836602299</v>
+        <v>8.6207830986847103E-2</v>
       </c>
       <c r="H10">
-        <v>0.91008732578321205</v>
+        <v>0.90203770852854104</v>
       </c>
       <c r="I10">
-        <v>0.11051931409178201</v>
+        <v>9.5732482542827096E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>1.7615231087682998E-2</v>
+        <v>1.74113385711929E-2</v>
       </c>
       <c r="C11">
-        <v>1.0521204475432699E-2</v>
+        <v>9.5808343318623795E-3</v>
       </c>
       <c r="D11">
-        <v>0.85265477908334997</v>
+        <v>0.84154922238255503</v>
       </c>
       <c r="E11">
-        <v>6.6295361666719302E-2</v>
+        <v>9.9809620411249203E-2</v>
       </c>
       <c r="F11">
-        <v>0.83266005291005196</v>
+        <v>0.82405092592592499</v>
       </c>
       <c r="G11">
-        <v>9.1870495219772794E-2</v>
+        <v>0.133615800814747</v>
       </c>
       <c r="H11">
-        <v>0.95041520934268497</v>
+        <v>0.94771102203131097</v>
       </c>
       <c r="I11">
-        <v>5.1505676854775299E-2</v>
+        <v>2.8640139804772102E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>1.6796262614992698E-2</v>
+        <v>2.2215658728659202E-2</v>
       </c>
       <c r="C12">
-        <v>5.7205330015453202E-3</v>
+        <v>1.1656289461718801E-2</v>
       </c>
       <c r="D12">
-        <v>0.86605405889622</v>
+        <v>0.77226545974790695</v>
       </c>
       <c r="E12">
-        <v>9.7368578060199606E-2</v>
+        <v>0.15019586737733001</v>
       </c>
       <c r="F12">
-        <v>0.79743771043770995</v>
+        <v>0.801115921115921</v>
       </c>
       <c r="G12">
-        <v>0.14901134765431601</v>
+        <v>0.128984080200302</v>
       </c>
       <c r="H12">
-        <v>0.91757110037074097</v>
+        <v>0.93434080013098098</v>
       </c>
       <c r="I12">
-        <v>8.8210616602848596E-2</v>
+        <v>6.4929981558487102E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>1.4687260658305E-2</v>
+        <v>1.05498635716374E-2</v>
       </c>
       <c r="C13">
-        <v>7.0750846168113899E-3</v>
+        <v>7.6766353589043804E-3</v>
       </c>
       <c r="D13">
-        <v>0.81173122449471402</v>
+        <v>0.94495166448108603</v>
       </c>
       <c r="E13">
-        <v>0.26931356460505301</v>
+        <v>3.1437817324869402E-2</v>
       </c>
       <c r="F13">
-        <v>0.81164772727272705</v>
+        <v>0.86828885400313904</v>
       </c>
       <c r="G13">
-        <v>0.20388784560882101</v>
+        <v>8.5096270571847696E-2</v>
       </c>
       <c r="H13">
-        <v>0.91630709918994302</v>
+        <v>0.97136253557367502</v>
       </c>
       <c r="I13">
-        <v>0.11604503203537</v>
+        <v>2.40554863478048E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>1.6206641732967399E-2</v>
+        <v>1.1630340114680801E-2</v>
       </c>
       <c r="C14">
-        <v>1.0353832183302899E-2</v>
+        <v>5.7637763958578699E-3</v>
       </c>
       <c r="D14">
-        <v>0.87378944226641897</v>
+        <v>0.93946802412895503</v>
       </c>
       <c r="E14">
-        <v>0.102118850887937</v>
+        <v>5.4409566530513501E-2</v>
       </c>
       <c r="F14">
-        <v>0.78087536900103804</v>
+        <v>0.94375180375180301</v>
       </c>
       <c r="G14">
-        <v>0.126006518275223</v>
+        <v>7.4754971293336997E-2</v>
       </c>
       <c r="H14">
-        <v>0.90312265613067599</v>
+        <v>0.95199453112513999</v>
       </c>
       <c r="I14">
-        <v>8.5860343878214396E-2</v>
+        <v>4.6850193409389902E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>1.52575565224203E-2</v>
+        <v>2.17927756073171E-2</v>
       </c>
       <c r="C15">
-        <v>5.0498989088904201E-3</v>
+        <v>1.29799934054394E-2</v>
       </c>
       <c r="D15">
-        <v>0.87147914371476098</v>
+        <v>0.81986381673881603</v>
       </c>
       <c r="E15">
-        <v>0.105944270121097</v>
+        <v>9.3138636385153697E-2</v>
       </c>
       <c r="F15">
-        <v>0.80133405483405395</v>
+        <v>0.82513888888888798</v>
       </c>
       <c r="G15">
-        <v>0.12816456437440699</v>
+        <v>0.11249759942569</v>
       </c>
       <c r="H15">
-        <v>0.90879856405301496</v>
+        <v>0.91398358438081795</v>
       </c>
       <c r="I15">
-        <v>0.103399347390232</v>
+        <v>9.2540404627038206E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>1.944189966818E-2</v>
+        <v>1.7808170387735502E-2</v>
       </c>
       <c r="C16">
-        <v>9.7480226574671609E-3</v>
+        <v>6.9321558373325104E-3</v>
       </c>
       <c r="D16">
-        <v>0.78992532189215303</v>
+        <v>0.86411863295551905</v>
       </c>
       <c r="E16">
-        <v>0.177777296656874</v>
+        <v>0.103917057902656</v>
       </c>
       <c r="F16">
-        <v>0.71482308399272598</v>
+        <v>0.86944444444444402</v>
       </c>
       <c r="G16">
-        <v>0.17286381512784699</v>
+        <v>0.118183501671511</v>
       </c>
       <c r="H16">
-        <v>0.88142093679424105</v>
+        <v>0.91794120638430599</v>
       </c>
       <c r="I16">
-        <v>0.121298101219109</v>
+        <v>8.8989976201152898E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>1.4061633398237201E-2</v>
+        <v>1.4703578856658199E-2</v>
       </c>
       <c r="C17">
-        <v>9.6269150106404605E-3</v>
+        <v>6.4613500232070797E-3</v>
       </c>
       <c r="D17">
-        <v>0.89645325171873003</v>
+        <v>0.78289972513204098</v>
       </c>
       <c r="E17">
-        <v>7.8130875973027702E-2</v>
+        <v>0.27424042913546798</v>
       </c>
       <c r="F17">
-        <v>0.84939490425799902</v>
+        <v>0.85102272727272699</v>
       </c>
       <c r="G17">
-        <v>0.12978040803318699</v>
+        <v>0.185198219974756</v>
       </c>
       <c r="H17">
-        <v>0.94711172187004</v>
+        <v>0.90089728561184401</v>
       </c>
       <c r="I17">
-        <v>7.6807217159421598E-2</v>
+        <v>0.12715216552036801</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>1.8840511472619E-2</v>
+        <v>1.7888280453016998E-2</v>
       </c>
       <c r="C18">
-        <v>1.4013117491474899E-2</v>
+        <v>1.5670225368102499E-2</v>
       </c>
       <c r="D18">
-        <v>0.90021651358354704</v>
+        <v>0.88187882000377105</v>
       </c>
       <c r="E18">
-        <v>0.106220068412716</v>
+        <v>9.1345649301843301E-2</v>
       </c>
       <c r="F18">
-        <v>0.79961508280974403</v>
+        <v>0.88240329363097203</v>
       </c>
       <c r="G18">
-        <v>0.14828513421265699</v>
+        <v>9.4708407675235196E-2</v>
       </c>
       <c r="H18">
-        <v>0.93371650558936503</v>
+        <v>0.91086055050186898</v>
       </c>
       <c r="I18">
-        <v>8.7799985465927502E-2</v>
+        <v>8.0376653501378306E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>1.0368752356153499E-2</v>
+        <v>1.67336418292864E-2</v>
       </c>
       <c r="C19">
-        <v>6.5764085127298904E-3</v>
+        <v>6.5688058661143899E-3</v>
       </c>
       <c r="D19">
-        <v>0.93244424166766904</v>
+        <v>0.83060936215316294</v>
       </c>
       <c r="E19">
-        <v>6.0658733698190401E-2</v>
+        <v>0.16315027472815399</v>
       </c>
       <c r="F19">
-        <v>0.86935576418776095</v>
+        <v>0.86041666666666605</v>
       </c>
       <c r="G19">
-        <v>0.10418091333667701</v>
+        <v>0.117211121356708</v>
       </c>
       <c r="H19">
-        <v>0.95199942655430903</v>
+        <v>0.89769492961168096</v>
       </c>
       <c r="I19">
-        <v>5.2757492422814203E-2</v>
+        <v>0.105189456110311</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>1.1602520094497601E-2</v>
+        <v>1.9287485885648999E-2</v>
       </c>
       <c r="C20">
-        <v>6.4977734344918202E-3</v>
+        <v>8.7569878529906008E-3</v>
       </c>
       <c r="D20">
-        <v>0.90166067805486305</v>
+        <v>0.85008149925433596</v>
       </c>
       <c r="E20">
-        <v>0.12184016679880499</v>
+        <v>0.121651035488187</v>
       </c>
       <c r="F20">
-        <v>0.81789500661375603</v>
+        <v>0.87727648894315502</v>
       </c>
       <c r="G20">
-        <v>0.18058581261682399</v>
+        <v>0.123583423720156</v>
       </c>
       <c r="H20">
-        <v>0.92157173310215601</v>
+        <v>0.89677478866540905</v>
       </c>
       <c r="I20">
-        <v>0.119908273618795</v>
+        <v>0.13102566230326901</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>1.07491067090389E-2</v>
+        <v>1.6247377899878498E-2</v>
       </c>
       <c r="C21">
-        <v>5.52083321174984E-3</v>
+        <v>1.09592137122931E-2</v>
       </c>
       <c r="D21">
-        <v>0.94173602630040598</v>
+        <v>0.89753883968461301</v>
       </c>
       <c r="E21">
-        <v>5.0265601498298798E-2</v>
+        <v>7.8265952110917594E-2</v>
       </c>
       <c r="F21">
-        <v>0.89786216329966295</v>
+        <v>0.90119047619047599</v>
       </c>
       <c r="G21">
-        <v>7.3070967527182604E-2</v>
+        <v>0.10302527043986</v>
       </c>
       <c r="H21">
-        <v>0.97359618509229995</v>
+        <v>0.94052846712120197</v>
       </c>
       <c r="I21">
-        <v>2.0056446671491798E-2</v>
+        <v>7.5997349645733098E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>1.76265363958228E-2</v>
+        <v>2.0821033320644802E-2</v>
       </c>
       <c r="C22">
-        <v>1.08633879349511E-2</v>
+        <v>1.36661459871974E-2</v>
       </c>
       <c r="D22">
-        <v>0.87848568790396997</v>
+        <v>0.86785953969777496</v>
       </c>
       <c r="E22">
-        <v>0.112684902314466</v>
+        <v>0.15315851307517001</v>
       </c>
       <c r="F22">
-        <v>0.81284656084656004</v>
+        <v>0.90765758547008502</v>
       </c>
       <c r="G22">
-        <v>0.17295501065330901</v>
+        <v>9.9738206437511703E-2</v>
       </c>
       <c r="H22">
-        <v>0.93962839643940299</v>
+        <v>0.92884546592766504</v>
       </c>
       <c r="I22">
-        <v>7.80288795674038E-2</v>
+        <v>9.0764802773472597E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>1.15622428408496E-2</v>
+        <v>1.0584293012522301E-2</v>
       </c>
       <c r="C23">
-        <v>1.03643860249164E-2</v>
+        <v>7.3531365041366904E-3</v>
       </c>
       <c r="D23">
-        <v>0.96666666666666601</v>
+        <v>0.93144408564372505</v>
       </c>
       <c r="E23">
-        <v>1.9713279960352399E-2</v>
+        <v>6.14571093858114E-2</v>
       </c>
       <c r="F23">
-        <v>0.81599999999999995</v>
+        <v>0.92884232264334299</v>
       </c>
       <c r="G23">
-        <v>0.14990663761154799</v>
+        <v>6.0717005592725602E-2</v>
       </c>
       <c r="H23">
-        <v>0.98043679700307895</v>
+        <v>0.94731276043209101</v>
       </c>
       <c r="I23">
-        <v>2.18646963368219E-2</v>
+        <v>5.7578388372530702E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>1.3822243275465799E-2</v>
+        <v>1.15848792661332E-2</v>
       </c>
       <c r="C24">
-        <v>4.6743372441560901E-3</v>
+        <v>4.3917857653387399E-3</v>
       </c>
       <c r="D24">
-        <v>0.93696969696969601</v>
+        <v>0.92673665643940395</v>
       </c>
       <c r="E24">
-        <v>5.1425947722656701E-3</v>
+        <v>6.6162728686532807E-2</v>
       </c>
       <c r="F24">
-        <v>0.88233333333333297</v>
+        <v>0.93097222222222198</v>
       </c>
       <c r="G24">
-        <v>8.0138768534476698E-3</v>
+        <v>6.4972424112555105E-2</v>
       </c>
       <c r="H24">
-        <v>0.98101752490482397</v>
+        <v>0.94760897417757495</v>
       </c>
       <c r="I24">
-        <v>3.1223263684258501E-3</v>
+        <v>6.8402788282045796E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>1.7444632341839E-2</v>
+        <v>1.40817777836973E-2</v>
       </c>
       <c r="C25">
-        <v>1.18720125611707E-2</v>
+        <v>8.3685115966694607E-3</v>
       </c>
       <c r="D25">
-        <v>0.86892618231319096</v>
+        <v>0.91051945975136594</v>
       </c>
       <c r="E25">
-        <v>0.139950067086207</v>
+        <v>0.103893471857661</v>
       </c>
       <c r="F25">
-        <v>0.83630761616815996</v>
+        <v>0.93893698893698896</v>
       </c>
       <c r="G25">
-        <v>0.145484082359398</v>
+        <v>5.5456954159521302E-2</v>
       </c>
       <c r="H25">
-        <v>0.98175657228924595</v>
+        <v>0.93803510133286205</v>
       </c>
       <c r="I25">
-        <v>5.7589813363591799E-2</v>
+        <v>0.104466702148897</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>9.6948393860775903E-3</v>
+        <v>1.77739496132545E-2</v>
       </c>
       <c r="C26">
-        <v>6.5687765443570301E-3</v>
+        <v>1.08641259532794E-2</v>
       </c>
       <c r="D26">
-        <v>0.929519151707208</v>
+        <v>0.87665015809060098</v>
       </c>
       <c r="E26">
-        <v>6.4640625782729E-2</v>
+        <v>0.11194944453712199</v>
       </c>
       <c r="F26">
-        <v>0.88678388307776401</v>
+        <v>0.86982456140350795</v>
       </c>
       <c r="G26">
-        <v>0.104558927778012</v>
+        <v>0.11376377982143999</v>
       </c>
       <c r="H26">
-        <v>0.96020842337072099</v>
+        <v>0.93469622444568501</v>
       </c>
       <c r="I26">
-        <v>5.3979967126310299E-2</v>
+        <v>7.3144169637570894E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>1.7219416436093201E-2</v>
+        <v>1.3296066389748199E-2</v>
       </c>
       <c r="C27">
-        <v>1.23362957053137E-2</v>
+        <v>1.28824317574745E-2</v>
       </c>
       <c r="D27">
-        <v>0.89227440794652502</v>
+        <v>0.96484848484848396</v>
       </c>
       <c r="E27">
-        <v>0.149540313321254</v>
+        <v>1.7141982574219401E-2</v>
       </c>
       <c r="F27">
-        <v>0.86836441798941799</v>
+        <v>0.87999999999999901</v>
       </c>
       <c r="G27">
-        <v>0.120551450651531</v>
+        <v>0.11313708498984699</v>
       </c>
       <c r="H27">
-        <v>0.95949460189509606</v>
+        <v>0.97962045218639704</v>
       </c>
       <c r="I27">
-        <v>5.9991191318873899E-2</v>
+        <v>2.3019182248145899E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>7.0072180502139701E-3</v>
+        <v>2.44350584180399E-2</v>
       </c>
       <c r="C28">
-        <v>1.1912543117452801E-3</v>
+        <v>1.4806625763922899E-2</v>
       </c>
       <c r="D28">
-        <v>0.98842975206611505</v>
+        <v>0.80930415263748601</v>
       </c>
       <c r="E28">
-        <v>9.3501723132105707E-3</v>
+        <v>0.21017974851238599</v>
       </c>
       <c r="F28">
-        <v>0.949242424242424</v>
+        <v>0.88370370370370299</v>
       </c>
       <c r="G28">
-        <v>4.6069078168214601E-2</v>
+        <v>9.1795084010853595E-2</v>
       </c>
       <c r="H28">
-        <v>0.98628467554900801</v>
+        <v>0.93380632983380196</v>
       </c>
       <c r="I28">
-        <v>1.8915741141785899E-2</v>
+        <v>5.5149090908142698E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>1.18815220401189E-2</v>
+        <v>1.5157807309706501E-2</v>
       </c>
       <c r="C29">
-        <v>4.4211553734474001E-3</v>
+        <v>7.3337878112677999E-3</v>
       </c>
       <c r="D29">
-        <v>0.91915150428830406</v>
+        <v>0.92639922968200705</v>
       </c>
       <c r="E29">
-        <v>5.1021698598203498E-2</v>
+        <v>2.56627689492312E-2</v>
       </c>
       <c r="F29">
-        <v>0.81392138755218502</v>
+        <v>0.95167346938775499</v>
       </c>
       <c r="G29">
-        <v>0.118161329404848</v>
+        <v>5.2408544724913401E-2</v>
       </c>
       <c r="H29">
-        <v>0.91326162826197299</v>
+        <v>0.95691739697479705</v>
       </c>
       <c r="I29">
-        <v>8.1099855582086294E-2</v>
+        <v>5.1697064485286201E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>3.9672497151961902E-2</v>
+        <v>9.6119049854083601E-3</v>
       </c>
       <c r="C30">
-        <v>2.5632788540867299E-2</v>
+        <v>6.5166541889392802E-3</v>
       </c>
       <c r="D30">
-        <v>0.86308656559114205</v>
+        <v>0.93313666972757803</v>
       </c>
       <c r="E30">
-        <v>0.11739893745943999</v>
+        <v>6.1801610051283498E-2</v>
       </c>
       <c r="F30">
-        <v>0.78438674279235499</v>
+        <v>0.91359477124182997</v>
       </c>
       <c r="G30">
-        <v>0.13521663570847101</v>
+        <v>9.3548168190951797E-2</v>
       </c>
       <c r="H30">
-        <v>0.91446776586128797</v>
+        <v>0.96405381294208903</v>
       </c>
       <c r="I30">
-        <v>6.0219930112836099E-2</v>
+        <v>5.0255709501199099E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>1.6342817140316102E-2</v>
+        <v>2.2498746705071598E-2</v>
       </c>
       <c r="C31">
-        <v>6.7636403881509502E-3</v>
+        <v>1.48724803829722E-2</v>
       </c>
       <c r="D31">
-        <v>0.93556555101863403</v>
+        <v>0.89162711941057604</v>
       </c>
       <c r="E31">
-        <v>5.5878363479644998E-2</v>
+        <v>0.140350995622018</v>
       </c>
       <c r="F31">
-        <v>0.856296296296296</v>
+        <v>0.91083333333333305</v>
       </c>
       <c r="G31">
-        <v>0.15801929003114701</v>
+        <v>7.9334779268906294E-2</v>
       </c>
       <c r="H31">
-        <v>0.94278235250419395</v>
+        <v>0.95369864696645501</v>
       </c>
       <c r="I31">
-        <v>9.1281872045730295E-2</v>
+        <v>6.3055119154807202E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>7.8688199605832301E-3</v>
+        <v>7.1915294202123704E-3</v>
       </c>
       <c r="C32">
-        <v>7.1565492391056596E-3</v>
+        <v>1.3339692614593101E-3</v>
       </c>
       <c r="D32">
-        <v>0.97232940622354602</v>
+        <v>0.98925619834710699</v>
       </c>
       <c r="E32">
-        <v>1.6295097804330399E-2</v>
+        <v>1.05189438523618E-2</v>
       </c>
       <c r="F32">
-        <v>0.877634742873873</v>
+        <v>0.92424242424242398</v>
       </c>
       <c r="G32">
-        <v>7.7145425773659904E-2</v>
+        <v>0.10713739108886999</v>
       </c>
       <c r="H32">
-        <v>0.94138552543742404</v>
+        <v>0.98634132148541898</v>
       </c>
       <c r="I32">
-        <v>6.0973299206071002E-2</v>
+        <v>1.8995850593311599E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>6.60579708115325E-3</v>
+        <v>1.2624975274204401E-2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5.9616938920161603E-3</v>
       </c>
       <c r="D33">
-        <v>0.97448096885813096</v>
+        <v>0.92093272164115103</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4.4552526253904101E-2</v>
       </c>
       <c r="F33">
-        <v>0.86362952588442699</v>
+        <v>0.92861234004091098</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>7.7633123120650599E-2</v>
       </c>
       <c r="H33">
-        <v>0.95071068150022697</v>
+        <v>0.91371790379268802</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>7.9505003635148994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>1.26663504901768E-2</v>
+        <v>4.3280848000295899E-2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2.7257478999289101E-2</v>
       </c>
       <c r="D34">
-        <v>0.96</v>
+        <v>0.86094858452459</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.11641971540148</v>
       </c>
       <c r="F34">
-        <v>0.90033333333333299</v>
+        <v>0.86879251700680205</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>7.1146389487452402E-2</v>
       </c>
       <c r="H34">
-        <v>0.985117836338403</v>
+        <v>0.89990646427694698</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>7.3337770203697999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>2.3808465841837601E-2</v>
+        <v>1.6603892989884801E-2</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>6.4879614942180601E-3</v>
       </c>
       <c r="D35">
-        <v>0.939393939393939</v>
+        <v>0.93248850967248498</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>5.7551781618120197E-2</v>
       </c>
       <c r="F35">
-        <v>0.69866666666666599</v>
+        <v>0.92962962962962903</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>6.1195228303178903E-2</v>
       </c>
       <c r="H35">
-        <v>0.82856337291360804</v>
+        <v>0.93593412230404804</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>9.2464533307613103E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>7.4171761443645396E-3</v>
+        <v>8.4466198951049995E-3</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>8.6682561662771596E-3</v>
       </c>
       <c r="D36">
-        <v>0.93212121212121202</v>
+        <v>0.966862470536068</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3.2337422817318398E-2</v>
       </c>
       <c r="F36">
-        <v>0.85266666666666602</v>
+        <v>0.97563607085346205</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1.46828382497457E-2</v>
       </c>
       <c r="H36">
-        <v>0.96401789293074502</v>
+        <v>0.95340117499646404</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>5.8255450093835003E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>3.4940612766577901E-3</v>
+        <v>6.5932661005393897E-3</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.99151515151515102</v>
+        <v>0.97390426758938797</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.98599999999999999</v>
+        <v>0.99346405228758095</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.99771947985119203</v>
+        <v>0.95134008585220597</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4296,28 +4272,28 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>3.9743176899913303E-3</v>
+        <v>1.26835327477658E-2</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.94468521487881996</v>
+        <v>0.94909090909090899</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.93866666666666598</v>
+        <v>0.96</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.99624100585116104</v>
+        <v>0.97955549955590704</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4331,7 +4307,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:XFD29"/>
@@ -4344,28 +4320,28 @@
         <v>12</v>
       </c>
       <c r="B1">
-        <v>1.7892597685408702E-2</v>
+        <v>2.78680305311792E-2</v>
       </c>
       <c r="C1">
-        <v>3.72682544620743E-3</v>
+        <v>1.0372302911615901E-2</v>
       </c>
       <c r="D1">
-        <v>0.73212121212121195</v>
+        <v>0.73696969696969705</v>
       </c>
       <c r="E1">
-        <v>3.5998163405860498E-2</v>
+        <v>3.7712361663282498E-2</v>
       </c>
       <c r="F1">
-        <v>0.65449999999999997</v>
+        <v>0.71</v>
       </c>
       <c r="G1">
-        <v>6.3639610306789303E-3</v>
+        <v>0.12727922061357799</v>
       </c>
       <c r="H1">
-        <v>0.85378905215037904</v>
+        <v>0.85798979030515898</v>
       </c>
       <c r="I1">
-        <v>0.10657626364237401</v>
+        <v>0.10084679445330701</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4373,28 +4349,28 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>2.4230431198966201E-2</v>
+        <v>2.8717844695673601E-2</v>
       </c>
       <c r="C2">
-        <v>1.9047547412997399E-3</v>
+        <v>2.6591190574428601E-3</v>
       </c>
       <c r="D2">
-        <v>0.912483370288248</v>
+        <v>0.89723946784922404</v>
       </c>
       <c r="E2">
-        <v>9.9402594073673394E-3</v>
+        <v>1.1617874165393199E-2</v>
       </c>
       <c r="F2">
-        <v>0.8085</v>
+        <v>0.82</v>
       </c>
       <c r="G2">
-        <v>0.12468649574922699</v>
+        <v>2.8284271247461999E-2</v>
       </c>
       <c r="H2">
-        <v>0.92651566842948496</v>
+        <v>0.91973766432044701</v>
       </c>
       <c r="I2">
-        <v>9.27556139331457E-2</v>
+        <v>0.10234115926996699</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4402,28 +4378,28 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>1.29438831900799E-2</v>
+        <v>1.3072961884183601E-2</v>
       </c>
       <c r="C3">
-        <v>3.5056464534240798E-3</v>
+        <v>3.6751889749462299E-3</v>
       </c>
       <c r="D3">
-        <v>0.88606060606060599</v>
+        <v>0.88545454545454505</v>
       </c>
       <c r="E3">
-        <v>7.5424723326564996E-2</v>
+        <v>7.4567624197854093E-2</v>
       </c>
       <c r="F3">
-        <v>0.81499999999999995</v>
+        <v>0.89999999999999902</v>
       </c>
       <c r="G3">
-        <v>8.7209836346340802E-2</v>
+        <v>0.141421356237309</v>
       </c>
       <c r="H3">
-        <v>0.94283822266591999</v>
+        <v>0.94069455201129804</v>
       </c>
       <c r="I3">
-        <v>3.11294258183278E-2</v>
+        <v>2.8097817705300201E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4431,28 +4407,28 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1.4141618948985401E-2</v>
+        <v>1.3529404359788199E-2</v>
       </c>
       <c r="C4">
-        <v>3.5487592299412798E-3</v>
+        <v>3.1566644021290601E-3</v>
       </c>
       <c r="D4">
-        <v>0.89297379344634797</v>
+        <v>0.88911388533573699</v>
       </c>
       <c r="E4">
-        <v>8.2715610321925204E-2</v>
+        <v>7.9910132275372595E-2</v>
       </c>
       <c r="F4">
-        <v>0.78877777777777702</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="G4">
-        <v>0.19801973339749401</v>
+        <v>0.115470053837925</v>
       </c>
       <c r="H4">
-        <v>0.893919214643906</v>
+        <v>0.89523277470374196</v>
       </c>
       <c r="I4">
-        <v>9.4578200897217607E-2</v>
+        <v>8.9334922549948195E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4460,28 +4436,28 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>2.54085485144049E-2</v>
+        <v>2.6829524074911501E-2</v>
       </c>
       <c r="C5">
-        <v>1.7189763720732099E-2</v>
+        <v>1.79148856422306E-2</v>
       </c>
       <c r="D5">
-        <v>0.83927048336535903</v>
+        <v>0.83896786304846604</v>
       </c>
       <c r="E5">
-        <v>0.17145672040944501</v>
+        <v>0.16983223876181699</v>
       </c>
       <c r="F5">
-        <v>0.77311485890652498</v>
+        <v>0.88379629629629597</v>
       </c>
       <c r="G5">
-        <v>0.13796464338273101</v>
+        <v>8.6207830986847103E-2</v>
       </c>
       <c r="H5">
-        <v>0.90622608571099805</v>
+        <v>0.90203770852854104</v>
       </c>
       <c r="I5">
-        <v>9.3115731556360701E-2</v>
+        <v>9.5732482542827096E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4489,28 +4465,28 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>1.9115225187918701E-2</v>
+        <v>1.74113385711929E-2</v>
       </c>
       <c r="C6">
-        <v>1.07357474700416E-2</v>
+        <v>9.5808343318623795E-3</v>
       </c>
       <c r="D6">
-        <v>0.78657451580920901</v>
+        <v>0.84154922238255503</v>
       </c>
       <c r="E6">
-        <v>0.17637521221275601</v>
+        <v>9.9809620411249203E-2</v>
       </c>
       <c r="F6">
-        <v>0.741206396447467</v>
+        <v>0.82405092592592499</v>
       </c>
       <c r="G6">
-        <v>0.16586209584345901</v>
+        <v>0.133615800814747</v>
       </c>
       <c r="H6">
-        <v>0.91878249890099295</v>
+        <v>0.94771102203131097</v>
       </c>
       <c r="I6">
-        <v>8.6569251170824396E-2</v>
+        <v>2.8640139804772102E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4518,28 +4494,28 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>1.7085348582570398E-2</v>
+        <v>2.2215658728659202E-2</v>
       </c>
       <c r="C7">
-        <v>7.4322370037566299E-3</v>
+        <v>1.1656289461718801E-2</v>
       </c>
       <c r="D7">
-        <v>0.81085273614977205</v>
+        <v>0.77226545974790695</v>
       </c>
       <c r="E7">
-        <v>0.14699408613409701</v>
+        <v>0.15019586737733001</v>
       </c>
       <c r="F7">
-        <v>0.77699615199615202</v>
+        <v>0.801115921115921</v>
       </c>
       <c r="G7">
-        <v>0.13056477644021999</v>
+        <v>0.128984080200302</v>
       </c>
       <c r="H7">
-        <v>0.94430882066722899</v>
+        <v>0.93434080013098098</v>
       </c>
       <c r="I7">
-        <v>6.0108057567342901E-2</v>
+        <v>6.4929981558487102E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4547,28 +4523,28 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1.07071791182104E-2</v>
+        <v>1.05498635716374E-2</v>
       </c>
       <c r="C8">
-        <v>7.60613842836496E-3</v>
+        <v>7.6766353589043804E-3</v>
       </c>
       <c r="D8">
-        <v>0.94481493250466897</v>
+        <v>0.94495166448108603</v>
       </c>
       <c r="E8">
-        <v>2.9765000159264299E-2</v>
+        <v>3.1437817324869402E-2</v>
       </c>
       <c r="F8">
-        <v>0.882710024669208</v>
+        <v>0.86828885400313904</v>
       </c>
       <c r="G8">
-        <v>8.3116927218549699E-2</v>
+        <v>8.5096270571847696E-2</v>
       </c>
       <c r="H8">
-        <v>0.97687912609553895</v>
+        <v>0.97136253557367502</v>
       </c>
       <c r="I8">
-        <v>2.08406619627464E-2</v>
+        <v>2.40554863478048E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4576,28 +4552,28 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>1.7003765276305802E-2</v>
+        <v>1.1630340114680801E-2</v>
       </c>
       <c r="C9">
-        <v>1.49314910871666E-2</v>
+        <v>5.7637763958578699E-3</v>
       </c>
       <c r="D9">
-        <v>0.87339661164739002</v>
+        <v>0.93946802412895503</v>
       </c>
       <c r="E9">
-        <v>0.18371014214706299</v>
+        <v>5.4409566530513501E-2</v>
       </c>
       <c r="F9">
-        <v>0.79742737949880804</v>
+        <v>0.94375180375180301</v>
       </c>
       <c r="G9">
-        <v>0.19657758836602299</v>
+        <v>7.4754971293336997E-2</v>
       </c>
       <c r="H9">
-        <v>0.91008732578321205</v>
+        <v>0.95199453112513999</v>
       </c>
       <c r="I9">
-        <v>0.11051931409178201</v>
+        <v>4.6850193409389902E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4605,28 +4581,28 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>1.7615231087682998E-2</v>
+        <v>2.17927756073171E-2</v>
       </c>
       <c r="C10">
-        <v>1.0521204475432699E-2</v>
+        <v>1.29799934054394E-2</v>
       </c>
       <c r="D10">
-        <v>0.85265477908334997</v>
+        <v>0.81986381673881603</v>
       </c>
       <c r="E10">
-        <v>6.6295361666719302E-2</v>
+        <v>9.3138636385153697E-2</v>
       </c>
       <c r="F10">
-        <v>0.83266005291005196</v>
+        <v>0.82513888888888798</v>
       </c>
       <c r="G10">
-        <v>9.1870495219772794E-2</v>
+        <v>0.11249759942569</v>
       </c>
       <c r="H10">
-        <v>0.95041520934268497</v>
+        <v>0.91398358438081795</v>
       </c>
       <c r="I10">
-        <v>5.1505676854775299E-2</v>
+        <v>9.2540404627038206E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4634,28 +4610,28 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>1.6796262614992698E-2</v>
+        <v>1.7808170387735502E-2</v>
       </c>
       <c r="C11">
-        <v>5.7205330015453202E-3</v>
+        <v>6.9321558373325104E-3</v>
       </c>
       <c r="D11">
-        <v>0.86605405889622</v>
+        <v>0.86411863295551905</v>
       </c>
       <c r="E11">
-        <v>9.7368578060199606E-2</v>
+        <v>0.103917057902656</v>
       </c>
       <c r="F11">
-        <v>0.79743771043770995</v>
+        <v>0.86944444444444402</v>
       </c>
       <c r="G11">
-        <v>0.14901134765431601</v>
+        <v>0.118183501671511</v>
       </c>
       <c r="H11">
-        <v>0.91757110037074097</v>
+        <v>0.91794120638430599</v>
       </c>
       <c r="I11">
-        <v>8.8210616602848596E-2</v>
+        <v>8.8989976201152898E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4663,28 +4639,28 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>1.4687260658305E-2</v>
+        <v>1.4703578856658199E-2</v>
       </c>
       <c r="C12">
-        <v>7.0750846168113899E-3</v>
+        <v>6.4613500232070797E-3</v>
       </c>
       <c r="D12">
-        <v>0.81173122449471402</v>
+        <v>0.78289972513204098</v>
       </c>
       <c r="E12">
-        <v>0.26931356460505301</v>
+        <v>0.27424042913546798</v>
       </c>
       <c r="F12">
-        <v>0.81164772727272705</v>
+        <v>0.85102272727272699</v>
       </c>
       <c r="G12">
-        <v>0.20388784560882101</v>
+        <v>0.185198219974756</v>
       </c>
       <c r="H12">
-        <v>0.91630709918994302</v>
+        <v>0.90089728561184401</v>
       </c>
       <c r="I12">
-        <v>0.11604503203537</v>
+        <v>0.12715216552036801</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4692,28 +4668,28 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>1.6206641732967399E-2</v>
+        <v>1.7888280453016998E-2</v>
       </c>
       <c r="C13">
-        <v>1.0353832183302899E-2</v>
+        <v>1.5670225368102499E-2</v>
       </c>
       <c r="D13">
-        <v>0.87378944226641897</v>
+        <v>0.88187882000377105</v>
       </c>
       <c r="E13">
-        <v>0.102118850887937</v>
+        <v>9.1345649301843301E-2</v>
       </c>
       <c r="F13">
-        <v>0.78087536900103804</v>
+        <v>0.88240329363097203</v>
       </c>
       <c r="G13">
-        <v>0.126006518275223</v>
+        <v>9.4708407675235196E-2</v>
       </c>
       <c r="H13">
-        <v>0.90312265613067599</v>
+        <v>0.91086055050186898</v>
       </c>
       <c r="I13">
-        <v>8.5860343878214396E-2</v>
+        <v>8.0376653501378306E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4721,28 +4697,28 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>1.52575565224203E-2</v>
+        <v>1.67336418292864E-2</v>
       </c>
       <c r="C14">
-        <v>5.0498989088904201E-3</v>
+        <v>6.5688058661143899E-3</v>
       </c>
       <c r="D14">
-        <v>0.87147914371476098</v>
+        <v>0.83060936215316294</v>
       </c>
       <c r="E14">
-        <v>0.105944270121097</v>
+        <v>0.16315027472815399</v>
       </c>
       <c r="F14">
-        <v>0.80133405483405395</v>
+        <v>0.86041666666666605</v>
       </c>
       <c r="G14">
-        <v>0.12816456437440699</v>
+        <v>0.117211121356708</v>
       </c>
       <c r="H14">
-        <v>0.90879856405301496</v>
+        <v>0.89769492961168096</v>
       </c>
       <c r="I14">
-        <v>0.103399347390232</v>
+        <v>0.105189456110311</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4750,28 +4726,28 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>1.944189966818E-2</v>
+        <v>1.9287485885648999E-2</v>
       </c>
       <c r="C15">
-        <v>9.7480226574671609E-3</v>
+        <v>8.7569878529906008E-3</v>
       </c>
       <c r="D15">
-        <v>0.78992532189215303</v>
+        <v>0.85008149925433596</v>
       </c>
       <c r="E15">
-        <v>0.177777296656874</v>
+        <v>0.121651035488187</v>
       </c>
       <c r="F15">
-        <v>0.71482308399272598</v>
+        <v>0.87727648894315502</v>
       </c>
       <c r="G15">
-        <v>0.17286381512784699</v>
+        <v>0.123583423720156</v>
       </c>
       <c r="H15">
-        <v>0.88142093679424105</v>
+        <v>0.89677478866540905</v>
       </c>
       <c r="I15">
-        <v>0.121298101219109</v>
+        <v>0.13102566230326901</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4779,28 +4755,28 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>1.4061633398237201E-2</v>
+        <v>1.6247377899878498E-2</v>
       </c>
       <c r="C16">
-        <v>9.6269150106404605E-3</v>
+        <v>1.09592137122931E-2</v>
       </c>
       <c r="D16">
-        <v>0.89645325171873003</v>
+        <v>0.89753883968461301</v>
       </c>
       <c r="E16">
-        <v>7.8130875973027702E-2</v>
+        <v>7.8265952110917594E-2</v>
       </c>
       <c r="F16">
-        <v>0.84939490425799902</v>
+        <v>0.90119047619047599</v>
       </c>
       <c r="G16">
-        <v>0.12978040803318699</v>
+        <v>0.10302527043986</v>
       </c>
       <c r="H16">
-        <v>0.94711172187004</v>
+        <v>0.94052846712120197</v>
       </c>
       <c r="I16">
-        <v>7.6807217159421598E-2</v>
+        <v>7.5997349645733098E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4808,28 +4784,28 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>1.8840511472619E-2</v>
+        <v>2.0821033320644802E-2</v>
       </c>
       <c r="C17">
-        <v>1.4013117491474899E-2</v>
+        <v>1.36661459871974E-2</v>
       </c>
       <c r="D17">
-        <v>0.90021651358354704</v>
+        <v>0.86785953969777496</v>
       </c>
       <c r="E17">
-        <v>0.106220068412716</v>
+        <v>0.15315851307517001</v>
       </c>
       <c r="F17">
-        <v>0.79961508280974403</v>
+        <v>0.90765758547008502</v>
       </c>
       <c r="G17">
-        <v>0.14828513421265699</v>
+        <v>9.9738206437511703E-2</v>
       </c>
       <c r="H17">
-        <v>0.93371650558936503</v>
+        <v>0.92884546592766504</v>
       </c>
       <c r="I17">
-        <v>8.7799985465927502E-2</v>
+        <v>9.0764802773472597E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4837,28 +4813,28 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>1.0368752356153499E-2</v>
+        <v>1.0584293012522301E-2</v>
       </c>
       <c r="C18">
-        <v>6.5764085127298904E-3</v>
+        <v>7.3531365041366904E-3</v>
       </c>
       <c r="D18">
-        <v>0.93244424166766904</v>
+        <v>0.93144408564372505</v>
       </c>
       <c r="E18">
-        <v>6.0658733698190401E-2</v>
+        <v>6.14571093858114E-2</v>
       </c>
       <c r="F18">
-        <v>0.86935576418776095</v>
+        <v>0.92884232264334299</v>
       </c>
       <c r="G18">
-        <v>0.10418091333667701</v>
+        <v>6.0717005592725602E-2</v>
       </c>
       <c r="H18">
-        <v>0.95199942655430903</v>
+        <v>0.94731276043209101</v>
       </c>
       <c r="I18">
-        <v>5.2757492422814203E-2</v>
+        <v>5.7578388372530702E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4866,28 +4842,28 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>1.1602520094497601E-2</v>
+        <v>1.15848792661332E-2</v>
       </c>
       <c r="C19">
-        <v>6.4977734344918202E-3</v>
+        <v>4.3917857653387399E-3</v>
       </c>
       <c r="D19">
-        <v>0.90166067805486305</v>
+        <v>0.92673665643940395</v>
       </c>
       <c r="E19">
-        <v>0.12184016679880499</v>
+        <v>6.6162728686532807E-2</v>
       </c>
       <c r="F19">
-        <v>0.81789500661375603</v>
+        <v>0.93097222222222198</v>
       </c>
       <c r="G19">
-        <v>0.18058581261682399</v>
+        <v>6.4972424112555105E-2</v>
       </c>
       <c r="H19">
-        <v>0.92157173310215601</v>
+        <v>0.94760897417757495</v>
       </c>
       <c r="I19">
-        <v>0.119908273618795</v>
+        <v>6.8402788282045796E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4895,28 +4871,28 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>1.07491067090389E-2</v>
+        <v>1.40817777836973E-2</v>
       </c>
       <c r="C20">
-        <v>5.52083321174984E-3</v>
+        <v>8.3685115966694607E-3</v>
       </c>
       <c r="D20">
-        <v>0.94173602630040598</v>
+        <v>0.91051945975136594</v>
       </c>
       <c r="E20">
-        <v>5.0265601498298798E-2</v>
+        <v>0.103893471857661</v>
       </c>
       <c r="F20">
-        <v>0.89786216329966295</v>
+        <v>0.93893698893698896</v>
       </c>
       <c r="G20">
-        <v>7.3070967527182604E-2</v>
+        <v>5.5456954159521302E-2</v>
       </c>
       <c r="H20">
-        <v>0.97359618509229995</v>
+        <v>0.93803510133286205</v>
       </c>
       <c r="I20">
-        <v>2.0056446671491798E-2</v>
+        <v>0.104466702148897</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4924,28 +4900,28 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>1.76265363958228E-2</v>
+        <v>1.77739496132545E-2</v>
       </c>
       <c r="C21">
-        <v>1.08633879349511E-2</v>
+        <v>1.08641259532794E-2</v>
       </c>
       <c r="D21">
-        <v>0.87848568790396997</v>
+        <v>0.87665015809060098</v>
       </c>
       <c r="E21">
-        <v>0.112684902314466</v>
+        <v>0.11194944453712199</v>
       </c>
       <c r="F21">
-        <v>0.81284656084656004</v>
+        <v>0.86982456140350795</v>
       </c>
       <c r="G21">
-        <v>0.17295501065330901</v>
+        <v>0.11376377982143999</v>
       </c>
       <c r="H21">
-        <v>0.93962839643940299</v>
+        <v>0.93469622444568501</v>
       </c>
       <c r="I21">
-        <v>7.80288795674038E-2</v>
+        <v>7.3144169637570894E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4953,28 +4929,28 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>1.15622428408496E-2</v>
+        <v>1.3296066389748199E-2</v>
       </c>
       <c r="C22">
-        <v>1.03643860249164E-2</v>
+        <v>1.28824317574745E-2</v>
       </c>
       <c r="D22">
-        <v>0.96666666666666601</v>
+        <v>0.96484848484848396</v>
       </c>
       <c r="E22">
-        <v>1.9713279960352399E-2</v>
+        <v>1.7141982574219401E-2</v>
       </c>
       <c r="F22">
-        <v>0.81599999999999995</v>
+        <v>0.87999999999999901</v>
       </c>
       <c r="G22">
-        <v>0.14990663761154799</v>
+        <v>0.11313708498984699</v>
       </c>
       <c r="H22">
-        <v>0.98043679700307895</v>
+        <v>0.97962045218639704</v>
       </c>
       <c r="I22">
-        <v>2.18646963368219E-2</v>
+        <v>2.3019182248145899E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4982,28 +4958,28 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>1.3822243275465799E-2</v>
+        <v>2.44350584180399E-2</v>
       </c>
       <c r="C23">
-        <v>4.6743372441560901E-3</v>
+        <v>1.4806625763922899E-2</v>
       </c>
       <c r="D23">
-        <v>0.93696969696969601</v>
+        <v>0.80930415263748601</v>
       </c>
       <c r="E23">
-        <v>5.1425947722656701E-3</v>
+        <v>0.21017974851238599</v>
       </c>
       <c r="F23">
-        <v>0.88233333333333297</v>
+        <v>0.88370370370370299</v>
       </c>
       <c r="G23">
-        <v>8.0138768534476698E-3</v>
+        <v>9.1795084010853595E-2</v>
       </c>
       <c r="H23">
-        <v>0.98101752490482397</v>
+        <v>0.93380632983380196</v>
       </c>
       <c r="I23">
-        <v>3.1223263684258501E-3</v>
+        <v>5.5149090908142698E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5011,28 +4987,28 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>1.7444632341839E-2</v>
+        <v>1.5157807309706501E-2</v>
       </c>
       <c r="C24">
-        <v>1.18720125611707E-2</v>
+        <v>7.3337878112677999E-3</v>
       </c>
       <c r="D24">
-        <v>0.86892618231319096</v>
+        <v>0.92639922968200705</v>
       </c>
       <c r="E24">
-        <v>0.139950067086207</v>
+        <v>2.56627689492312E-2</v>
       </c>
       <c r="F24">
-        <v>0.83630761616815996</v>
+        <v>0.95167346938775499</v>
       </c>
       <c r="G24">
-        <v>0.145484082359398</v>
+        <v>5.2408544724913401E-2</v>
       </c>
       <c r="H24">
-        <v>0.98175657228924595</v>
+        <v>0.95691739697479705</v>
       </c>
       <c r="I24">
-        <v>5.7589813363591799E-2</v>
+        <v>5.1697064485286201E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5040,28 +5016,28 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>9.6948393860775903E-3</v>
+        <v>9.6119049854083601E-3</v>
       </c>
       <c r="C25">
-        <v>6.5687765443570301E-3</v>
+        <v>6.5166541889392802E-3</v>
       </c>
       <c r="D25">
-        <v>0.929519151707208</v>
+        <v>0.93313666972757803</v>
       </c>
       <c r="E25">
-        <v>6.4640625782729E-2</v>
+        <v>6.1801610051283498E-2</v>
       </c>
       <c r="F25">
-        <v>0.88678388307776401</v>
+        <v>0.91359477124182997</v>
       </c>
       <c r="G25">
-        <v>0.104558927778012</v>
+        <v>9.3548168190951797E-2</v>
       </c>
       <c r="H25">
-        <v>0.96020842337072099</v>
+        <v>0.96405381294208903</v>
       </c>
       <c r="I25">
-        <v>5.3979967126310299E-2</v>
+        <v>5.0255709501199099E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5069,28 +5045,28 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>1.7219416436093201E-2</v>
+        <v>2.2498746705071598E-2</v>
       </c>
       <c r="C26">
-        <v>1.23362957053137E-2</v>
+        <v>1.48724803829722E-2</v>
       </c>
       <c r="D26">
-        <v>0.89227440794652502</v>
+        <v>0.89162711941057604</v>
       </c>
       <c r="E26">
-        <v>0.149540313321254</v>
+        <v>0.140350995622018</v>
       </c>
       <c r="F26">
-        <v>0.86836441798941799</v>
+        <v>0.91083333333333305</v>
       </c>
       <c r="G26">
-        <v>0.120551450651531</v>
+        <v>7.9334779268906294E-2</v>
       </c>
       <c r="H26">
-        <v>0.95949460189509606</v>
+        <v>0.95369864696645501</v>
       </c>
       <c r="I26">
-        <v>5.9991191318873899E-2</v>
+        <v>6.3055119154807202E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5098,28 +5074,28 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>7.0072180502139701E-3</v>
+        <v>7.1915294202123704E-3</v>
       </c>
       <c r="C27">
-        <v>1.1912543117452801E-3</v>
+        <v>1.3339692614593101E-3</v>
       </c>
       <c r="D27">
-        <v>0.98842975206611505</v>
+        <v>0.98925619834710699</v>
       </c>
       <c r="E27">
-        <v>9.3501723132105707E-3</v>
+        <v>1.05189438523618E-2</v>
       </c>
       <c r="F27">
-        <v>0.949242424242424</v>
+        <v>0.92424242424242398</v>
       </c>
       <c r="G27">
-        <v>4.6069078168214601E-2</v>
+        <v>0.10713739108886999</v>
       </c>
       <c r="H27">
-        <v>0.98628467554900801</v>
+        <v>0.98634132148541898</v>
       </c>
       <c r="I27">
-        <v>1.8915741141785899E-2</v>
+        <v>1.8995850593311599E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5127,141 +5103,141 @@
         <v>39</v>
       </c>
       <c r="B28">
-        <v>1.18815220401189E-2</v>
+        <v>1.2624975274204401E-2</v>
       </c>
       <c r="C28">
-        <v>4.4211553734474001E-3</v>
+        <v>5.9616938920161603E-3</v>
       </c>
       <c r="D28">
-        <v>0.91915150428830406</v>
+        <v>0.92093272164115103</v>
       </c>
       <c r="E28">
-        <v>5.1021698598203498E-2</v>
+        <v>4.4552526253904101E-2</v>
       </c>
       <c r="F28">
-        <v>0.81392138755218502</v>
+        <v>0.92861234004091098</v>
       </c>
       <c r="G28">
-        <v>0.118161329404848</v>
+        <v>7.7633123120650599E-2</v>
       </c>
       <c r="H28">
-        <v>0.91326162826197299</v>
+        <v>0.91371790379268802</v>
       </c>
       <c r="I28">
-        <v>8.1099855582086294E-2</v>
+        <v>7.9505003635148994E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>1.6342817140316102E-2</v>
+        <v>4.3280848000295899E-2</v>
       </c>
       <c r="C29">
-        <v>6.7636403881509502E-3</v>
+        <v>2.7257478999289101E-2</v>
       </c>
       <c r="D29">
-        <v>0.93556555101863403</v>
+        <v>0.86094858452459</v>
       </c>
       <c r="E29">
-        <v>5.5878363479644998E-2</v>
+        <v>0.11641971540148</v>
       </c>
       <c r="F29">
-        <v>0.856296296296296</v>
+        <v>0.86879251700680205</v>
       </c>
       <c r="G29">
-        <v>0.15801929003114701</v>
+        <v>7.1146389487452402E-2</v>
       </c>
       <c r="H29">
-        <v>0.94278235250419395</v>
+        <v>0.89990646427694698</v>
       </c>
       <c r="I29">
-        <v>9.1281872045730295E-2</v>
+        <v>7.3337770203697999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>7.8688199605832301E-3</v>
+        <v>1.6603892989884801E-2</v>
       </c>
       <c r="C30">
-        <v>7.1565492391056596E-3</v>
+        <v>6.4879614942180601E-3</v>
       </c>
       <c r="D30">
-        <v>0.97232940622354602</v>
+        <v>0.93248850967248498</v>
       </c>
       <c r="E30">
-        <v>1.6295097804330399E-2</v>
+        <v>5.7551781618120197E-2</v>
       </c>
       <c r="F30">
-        <v>0.877634742873873</v>
+        <v>0.92962962962962903</v>
       </c>
       <c r="G30">
-        <v>7.7145425773659904E-2</v>
+        <v>6.1195228303178903E-2</v>
       </c>
       <c r="H30">
-        <v>0.94138552543742404</v>
+        <v>0.93593412230404804</v>
       </c>
       <c r="I30">
-        <v>6.0973299206071002E-2</v>
+        <v>9.2464533307613103E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31">
-        <v>6.60579708115325E-3</v>
+        <v>8.4466198951049995E-3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>8.6682561662771596E-3</v>
       </c>
       <c r="D31">
-        <v>0.97448096885813096</v>
+        <v>0.966862470536068</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.2337422817318398E-2</v>
       </c>
       <c r="F31">
-        <v>0.86362952588442699</v>
+        <v>0.97563607085346205</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1.46828382497457E-2</v>
       </c>
       <c r="H31">
-        <v>0.95071068150022697</v>
+        <v>0.95340117499646404</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>5.8255450093835003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
-        <v>1.26663504901768E-2</v>
+        <v>6.5932661005393897E-3</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.96</v>
+        <v>0.97390426758938797</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.90033333333333299</v>
+        <v>0.99346405228758095</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.985117836338403</v>
+        <v>0.95134008585220597</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5269,28 +5245,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>2.3808465841837601E-2</v>
+        <v>1.26835327477658E-2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.939393939393939</v>
+        <v>0.94909090909090899</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.69866666666666599</v>
+        <v>0.96</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.82856337291360804</v>
+        <v>0.97955549955590704</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -5298,28 +5274,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
-        <v>7.4171761443645396E-3</v>
+        <v>2.35633554765423E-2</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.93212121212121202</v>
+        <v>0.93818181818181801</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.85266666666666602</v>
+        <v>0.96</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.96401789293074502</v>
+        <v>0.82693675450454496</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5327,59 +5303,30 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B35">
-        <v>3.4940612766577901E-3</v>
+        <v>7.2303801912552701E-3</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.99151515151515102</v>
+        <v>0.92727272727272703</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98599999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.99771947985119203</v>
+        <v>0.958081191352535</v>
       </c>
       <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>66</v>
-      </c>
-      <c r="B36">
-        <v>3.9743176899913303E-3</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0.94468521487881996</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0.93866666666666598</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0.99624100585116104</v>
-      </c>
-      <c r="I36">
         <v>0</v>
       </c>
     </row>
